--- a/Project4/KNN_Results.xlsx
+++ b/Project4/KNN_Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aris\Documents\Machine Learning Course\2020-21\Lectures\Lecture 5 - Instance-Based Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwgi\Desktop\1st semester\Machine Learning\Projects\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84A9BA-D254-44DC-A0E6-2F2AEB697DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A99579-78E7-4C2C-B69F-5943BB00AC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>Number of neighbors</t>
   </si>
@@ -68,14 +68,29 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>any</t>
+    <t>1(manhattan)</t>
+  </si>
+  <si>
+    <t>2(euclidean)</t>
+  </si>
+  <si>
+    <t>Impute</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,23 +121,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,11 +233,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,18 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,7 +291,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,176 +641,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.82681564245810002</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.82121794871794795</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.82245817245817199</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.82181047493657799</v>
+      </c>
+      <c r="J2" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.80446927374301602</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.80177238805970097</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.79144144144144102</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.79524136353237196</v>
+      </c>
+      <c r="J3" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.80446927374301602</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.79826923076922995</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.79942084942084901</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.79881827815420103</v>
+      </c>
+      <c r="J4" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.81005586592178702</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.80570117955439002</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.80019305019304998</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.80250519210799498</v>
+      </c>
+      <c r="J5" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.82681564245810002</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.836370056497175</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.806499356499356</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.81456975772765206</v>
+      </c>
+      <c r="J6" s="18">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.80446927374301602</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.80814115031953304</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.78545688545688497</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.79189503404749995</v>
+      </c>
+      <c r="J7" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.81570141570141497</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.81570141570141497</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.81570141570141497</v>
+      </c>
+      <c r="J8" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.81005586592178702</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.80570117955439002</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.80019305019304998</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.80250519210799498</v>
+      </c>
+      <c r="J9" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.83240223463687102</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.82722007722007695</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.82722007722007695</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.82722007722007695</v>
+      </c>
+      <c r="J10" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.80446927374301602</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.80177238805970097</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.79144144144144102</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.79524136353237196</v>
+      </c>
+      <c r="J11" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.79888268156424502</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.79247572815533895</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.79465894465894404</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.793461538461538</v>
+      </c>
+      <c r="J12" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.81005586592178702</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.80570117955439002</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.80019305019304998</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.80250519210799498</v>
+      </c>
+      <c r="J13" s="20">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
